--- a/Company.xlsx
+++ b/Company.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\LeadCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2EE9B-018A-41C6-8715-06D7CA90C390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060EFC5D-0172-4B48-92DE-25C6C71DD05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="1995" windowWidth="21600" windowHeight="12870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="313">
   <si>
     <t>ADV Group</t>
   </si>
@@ -284,12 +284,6 @@
     <t>DOT Digital Agency</t>
   </si>
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Выручка</t>
-  </si>
-  <si>
     <t>LBL</t>
   </si>
   <si>
@@ -1584,16 +1578,13 @@
     <t>Digital, SMM, BTL</t>
   </si>
   <si>
-    <t>Сегмент</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Год за который взята выручка</t>
-  </si>
-  <si>
-    <t>выручка за этот год</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>income_1</t>
+  </si>
+  <si>
+    <t>segment_tag</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1983,49 +1974,49 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M1" s="2">
         <v>1</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
@@ -2034,22 +2025,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
@@ -2066,10 +2057,10 @@
         <v>2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2079,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2099,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
@@ -2122,17 +2113,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -2152,10 +2143,10 @@
         <v>4</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2165,37 +2156,37 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
         <v>5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>9</v>
@@ -2208,30 +2199,30 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4">
         <v>6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
@@ -2251,30 +2242,30 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2">
@@ -2294,20 +2285,20 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
@@ -2324,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -2337,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2380,30 +2371,30 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -2423,10 +2414,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -2443,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>9</v>
@@ -2453,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2466,10 +2457,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
@@ -2505,16 +2496,16 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -2531,10 +2522,10 @@
         <v>13</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2544,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
@@ -2587,30 +2578,30 @@
         <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>15</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2">
@@ -2630,37 +2621,37 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>16</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
         <v>16</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
         <v>16</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>30</v>
@@ -2673,30 +2664,30 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2">
@@ -2716,10 +2707,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
@@ -2736,20 +2727,20 @@
         <v>18</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
         <v>18</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -2759,10 +2750,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
@@ -2779,10 +2770,10 @@
         <v>19</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2798,16 +2789,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4">
         <v>20</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
@@ -2824,10 +2815,10 @@
         <v>20</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2837,20 +2828,20 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2">
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
@@ -2870,30 +2861,30 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4">
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
         <v>22</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="2"/>
@@ -2903,30 +2894,30 @@
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2">
         <v>23</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2">
         <v>23</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="4"/>
@@ -2936,10 +2927,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2947,10 +2938,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="2"/>
@@ -2971,10 +2962,10 @@
         <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="4"/>
@@ -2984,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2995,10 +2986,10 @@
         <v>26</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="1"/>
@@ -3008,10 +2999,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3019,10 +3010,10 @@
         <v>27</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -3031,10 +3022,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3145,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665C420-D1DF-4BC0-84BB-8A306F81F1EB}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3160,86 +3151,77 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
         <v>232</v>
       </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3247,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3261,41 +3243,41 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3303,27 +3285,27 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3331,66 +3313,66 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3398,13 +3380,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3415,10 +3397,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3426,13 +3408,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3440,13 +3422,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3454,13 +3436,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
         <v>218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3468,13 +3450,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3482,13 +3464,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3496,13 +3478,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3510,13 +3492,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3527,10 +3509,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3538,13 +3520,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3552,13 +3534,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
         <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3566,13 +3548,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3580,13 +3562,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3597,10 +3579,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3608,13 +3590,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3622,13 +3604,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3636,13 +3618,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
         <v>241</v>
-      </c>
-      <c r="C34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3650,13 +3632,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" t="s">
         <v>259</v>
-      </c>
-      <c r="C35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3664,13 +3646,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3678,13 +3660,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3692,13 +3674,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3706,13 +3688,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3720,13 +3702,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
         <v>226</v>
-      </c>
-      <c r="C40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3734,13 +3716,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3748,13 +3730,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
         <v>215</v>
-      </c>
-      <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3765,10 +3747,10 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3776,13 +3758,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3790,13 +3772,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3804,13 +3786,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3818,13 +3800,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3832,13 +3814,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3846,13 +3828,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3863,10 +3845,10 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3874,13 +3856,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
         <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3888,13 +3870,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3902,13 +3884,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3916,13 +3898,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3930,13 +3912,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
         <v>265</v>
-      </c>
-      <c r="C55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3944,13 +3926,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
         <v>235</v>
-      </c>
-      <c r="C56" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3958,13 +3940,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3972,13 +3954,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3986,13 +3968,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4000,13 +3982,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4014,13 +3996,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4028,13 +4010,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4042,13 +4024,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4056,13 +4038,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4070,13 +4052,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4087,10 +4069,10 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4098,13 +4080,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4112,13 +4094,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
         <v>268</v>
-      </c>
-      <c r="C68" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4126,13 +4108,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" t="s">
         <v>229</v>
-      </c>
-      <c r="C69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4140,13 +4122,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" t="s">
         <v>244</v>
-      </c>
-      <c r="C70" t="s">
-        <v>245</v>
-      </c>
-      <c r="D70" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4154,13 +4136,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4168,13 +4150,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" t="s">
         <v>256</v>
-      </c>
-      <c r="C72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4182,13 +4164,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4196,13 +4178,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4210,13 +4192,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4224,13 +4206,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4238,13 +4220,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4252,13 +4234,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
         <v>250</v>
-      </c>
-      <c r="C78" t="s">
-        <v>251</v>
-      </c>
-      <c r="D78" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4266,13 +4248,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4280,13 +4262,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4294,13 +4276,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4311,10 +4293,10 @@
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4322,13 +4304,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4336,13 +4318,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" t="s">
         <v>247</v>
-      </c>
-      <c r="C84" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4350,13 +4332,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4364,13 +4346,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4378,13 +4360,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" t="s">
         <v>223</v>
-      </c>
-      <c r="C87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D87" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4395,10 +4377,10 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4406,13 +4388,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4420,13 +4402,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4437,10 +4419,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4448,13 +4430,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" t="s">
         <v>238</v>
-      </c>
-      <c r="C92" t="s">
-        <v>239</v>
-      </c>
-      <c r="D92" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4462,13 +4444,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" t="s">
         <v>262</v>
-      </c>
-      <c r="C93" t="s">
-        <v>263</v>
-      </c>
-      <c r="D93" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4476,13 +4458,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" t="s">
         <v>253</v>
-      </c>
-      <c r="C94" t="s">
-        <v>254</v>
-      </c>
-      <c r="D94" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4490,13 +4472,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4504,13 +4486,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" t="s">
         <v>283</v>
-      </c>
-      <c r="C96" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4518,13 +4500,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4532,13 +4514,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" t="s">
         <v>121</v>
-      </c>
-      <c r="C98" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4546,13 +4528,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" t="s">
         <v>130</v>
-      </c>
-      <c r="C99" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4560,13 +4542,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4574,13 +4556,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4591,10 +4573,10 @@
         <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4605,10 +4587,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4616,13 +4598,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4630,13 +4612,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4644,13 +4626,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4658,13 +4640,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4675,10 +4657,10 @@
         <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
